--- a/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P12_trail1 Features.xlsx
+++ b/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P12_trail1 Features.xlsx
@@ -4159,7 +4159,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.44292525716131</v>
+        <v>1.463979954981279</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.298690733111711</v>
@@ -4248,7 +4248,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.462769479464403</v>
+        <v>1.488117798488065</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.307597680038092</v>
@@ -4337,7 +4337,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.463430612645898</v>
+        <v>1.4838486151959</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.173528205210392</v>
@@ -4426,7 +4426,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.473867407517696</v>
+        <v>1.492413733414148</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.234893347441206</v>
@@ -4515,7 +4515,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.465362616695159</v>
+        <v>1.487430856342593</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.218992929573091</v>
@@ -4604,7 +4604,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.451507355464892</v>
+        <v>1.472792552686312</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.270534768118065</v>
@@ -4693,7 +4693,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.478529085311446</v>
+        <v>1.500012133340273</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.183295083213054</v>
@@ -4782,7 +4782,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.474491906742645</v>
+        <v>1.499244635619721</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.407221460476141</v>
@@ -4871,7 +4871,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.45585873272641</v>
+        <v>1.478138345816621</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.317157978835818</v>
@@ -4960,7 +4960,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.45621371530082</v>
+        <v>1.476453948758332</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.252082772788768</v>
@@ -5049,7 +5049,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.455205686477757</v>
+        <v>1.476065045756397</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.344269869960201</v>
@@ -5138,7 +5138,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.446098229575798</v>
+        <v>1.466402125812847</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.279919616472494</v>
@@ -5227,7 +5227,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.462883965024125</v>
+        <v>1.48659421742949</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.214380535068842</v>
@@ -5316,7 +5316,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.464052511298769</v>
+        <v>1.486778471824451</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.295773004227565</v>
@@ -5405,7 +5405,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.463620186970798</v>
+        <v>1.486022774035669</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.489170134286828</v>
@@ -5494,7 +5494,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.505502784228454</v>
+        <v>1.522907613529606</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.338184818679109</v>
@@ -5583,7 +5583,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.507625462999118</v>
+        <v>1.525253466749015</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.359487986796668</v>
@@ -5672,7 +5672,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.529032884077481</v>
+        <v>1.549296015345146</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.521867888897728</v>
@@ -5761,7 +5761,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.536884185347455</v>
+        <v>1.552939571834816</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.36507375925216</v>
@@ -5850,7 +5850,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.54484647202428</v>
+        <v>1.559344961308131</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.463068112647859</v>
@@ -5939,7 +5939,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.555108981351038</v>
+        <v>1.570219648441737</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.343038991185352</v>
@@ -6028,7 +6028,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.544393511977451</v>
+        <v>1.564447163380642</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.555804658393301</v>
@@ -6117,7 +6117,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.570721861559228</v>
+        <v>1.593528767885987</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.358237314624998</v>
@@ -6206,7 +6206,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.611279682610799</v>
+        <v>1.638674332452698</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.410764344990423</v>
@@ -6295,7 +6295,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.621753043052717</v>
+        <v>1.647833579510081</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.889311702470069</v>
@@ -6384,7 +6384,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.633952677000001</v>
+        <v>1.658979501614012</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.425801788247461</v>
@@ -6473,7 +6473,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.633280480525006</v>
+        <v>1.65687204379247</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.058642179098194</v>
@@ -6562,7 +6562,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.607443410032561</v>
+        <v>1.633364191203203</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.772814570882149</v>
@@ -6651,7 +6651,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.589640292169275</v>
+        <v>1.60252480093786</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.449249519903185</v>
@@ -6740,7 +6740,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.585463122218187</v>
+        <v>1.600315513578375</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.411098847217918</v>
@@ -6829,7 +6829,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.576382276608948</v>
+        <v>1.592614136991614</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.532333549400796</v>
@@ -6918,7 +6918,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.543139423807361</v>
+        <v>1.559384924025449</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.205095098253297</v>
@@ -7007,7 +7007,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.55029095618678</v>
+        <v>1.564903276164248</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.371584674341822</v>
@@ -7096,7 +7096,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.522322406267233</v>
+        <v>1.542664862829402</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.305096183874393</v>
@@ -7185,7 +7185,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.502880852026368</v>
+        <v>1.526487854665504</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.231999714794733</v>
@@ -7274,7 +7274,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.46752432656304</v>
+        <v>1.493783649155676</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.402799725876849</v>
@@ -7363,7 +7363,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.473665151037902</v>
+        <v>1.499691764583853</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.26966143414271</v>
@@ -7452,7 +7452,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.466821168177204</v>
+        <v>1.494864430351897</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.280670280508435</v>
@@ -7541,7 +7541,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.459168338416605</v>
+        <v>1.484543528383561</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.351089409991112</v>
@@ -7630,7 +7630,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.448907267605816</v>
+        <v>1.474206068589972</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.374499737387782</v>
@@ -7719,7 +7719,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.432957993998892</v>
+        <v>1.455461849962451</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.227373295505473</v>
@@ -7808,7 +7808,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.428653196843144</v>
+        <v>1.452856503471423</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.310044865574027</v>
@@ -8094,7 +8094,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.488828501187383</v>
+        <v>1.473893789400798</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.497258364435596</v>
@@ -8183,7 +8183,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.496499599903316</v>
+        <v>1.479801500488231</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.470843101953393</v>
@@ -8272,7 +8272,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.50080218175479</v>
+        <v>1.4862614773566</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.179379364029216</v>
@@ -8361,7 +8361,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.517747404313107</v>
+        <v>1.50170261443694</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.415299756619027</v>
@@ -8450,7 +8450,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.511325917731388</v>
+        <v>1.499483773658546</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.339037035255416</v>
@@ -8539,7 +8539,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.49643039657443</v>
+        <v>1.489989709319603</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.473315810384358</v>
@@ -8628,7 +8628,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.507322363306747</v>
+        <v>1.495500409137556</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.186425684200812</v>
@@ -8717,7 +8717,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.490759667132082</v>
+        <v>1.484707089331363</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.539206819032608</v>
@@ -8806,7 +8806,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.490097779555805</v>
+        <v>1.477053111769866</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.486761860071204</v>
@@ -8895,7 +8895,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.490650022631542</v>
+        <v>1.475418038426165</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.53676033122226</v>
@@ -8984,7 +8984,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.501987612904349</v>
+        <v>1.486654518544304</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.466302985637896</v>
@@ -9073,7 +9073,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.494947303520718</v>
+        <v>1.483295999574252</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.502765232488057</v>
@@ -9162,7 +9162,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.51905639350316</v>
+        <v>1.506455467632333</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.221661180201448</v>
@@ -9251,7 +9251,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.525186305695207</v>
+        <v>1.512892201954194</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.507879268338921</v>
@@ -9340,7 +9340,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.524205660132994</v>
+        <v>1.515969579414951</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.698093029479315</v>
@@ -9429,7 +9429,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.548887896034833</v>
+        <v>1.535595945065415</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.680021189065616</v>
@@ -9518,7 +9518,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.559879427732334</v>
+        <v>1.541381060549196</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.493132965421466</v>
@@ -9607,7 +9607,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.575619082543895</v>
+        <v>1.560613292802025</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.744258737526366</v>
@@ -9696,7 +9696,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.589774644374509</v>
+        <v>1.573182348237969</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.647771436138911</v>
@@ -9785,7 +9785,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.589567694945691</v>
+        <v>1.566955871382365</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.609050526959626</v>
@@ -9874,7 +9874,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.601741977968765</v>
+        <v>1.574336162107154</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.754974988389527</v>
@@ -9963,7 +9963,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.604508437246551</v>
+        <v>1.580951451044748</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.687199083520956</v>
@@ -10052,7 +10052,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.633517819100019</v>
+        <v>1.604814522252821</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.919243868931583</v>
@@ -10141,7 +10141,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.656774210462135</v>
+        <v>1.634799950475428</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.267778931909073</v>
@@ -10230,7 +10230,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.645537611255211</v>
+        <v>1.62976466078502</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.266720580716548</v>
@@ -10319,7 +10319,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.639463787254401</v>
+        <v>1.624879008522839</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.082641616118325</v>
@@ -10408,7 +10408,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.639311778545499</v>
+        <v>1.626977659311149</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.336269097634177</v>
@@ -10497,7 +10497,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.625261073340722</v>
+        <v>1.61324234818707</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.872419485868818</v>
@@ -10586,7 +10586,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.614844489825519</v>
+        <v>1.600670201837485</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.625211620074358</v>
@@ -10675,7 +10675,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.619978564338269</v>
+        <v>1.60617272360065</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.731972408200769</v>
@@ -10764,7 +10764,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.626050870722113</v>
+        <v>1.608990320465201</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.934690090302015</v>
@@ -10853,7 +10853,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.609050340724553</v>
+        <v>1.585436424631647</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.724846893235344</v>
@@ -10942,7 +10942,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.584239338265501</v>
+        <v>1.564818993777388</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.662097652279526</v>
@@ -11031,7 +11031,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.569513681387031</v>
+        <v>1.557064530506171</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.603073539598061</v>
@@ -11120,7 +11120,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.54990672027164</v>
+        <v>1.543951376137206</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.651814024075037</v>
@@ -11209,7 +11209,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.531467898558717</v>
+        <v>1.53269569980175</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.652799178581825</v>
@@ -11298,7 +11298,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.525297068279152</v>
+        <v>1.52567778007451</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.655489288385819</v>
@@ -11387,7 +11387,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.50476923503398</v>
+        <v>1.510176755863131</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.63514390210955</v>
@@ -11476,7 +11476,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.499488736294157</v>
+        <v>1.49853975870767</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.720987477920797</v>
@@ -11565,7 +11565,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.505225461321886</v>
+        <v>1.502695806622155</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.68253869799758</v>
@@ -11654,7 +11654,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.503495757671371</v>
+        <v>1.499195321046228</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.430064884346526</v>
@@ -11743,7 +11743,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.503584101947496</v>
+        <v>1.497553793165006</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.587895544651169</v>
@@ -12029,7 +12029,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.446058885686321</v>
+        <v>1.474449888916744</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.716620234372435</v>
@@ -12118,7 +12118,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.455618840803392</v>
+        <v>1.484373985560462</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.682771000882967</v>
@@ -12207,7 +12207,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.443947004453428</v>
+        <v>1.473613188599833</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.661073789137088</v>
@@ -12296,7 +12296,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.449425269615512</v>
+        <v>1.48105764183927</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.794366962620026</v>
@@ -12385,7 +12385,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.455037482130711</v>
+        <v>1.485343873327599</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.803881779198023</v>
@@ -12474,7 +12474,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.460488696510664</v>
+        <v>1.488953247994359</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.549087835564753</v>
@@ -12563,7 +12563,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.473641903984037</v>
+        <v>1.497997177312467</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.601941648898054</v>
@@ -12652,7 +12652,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.460521430219637</v>
+        <v>1.485135532583582</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.737412865296643</v>
@@ -12741,7 +12741,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.448673340949221</v>
+        <v>1.471205718640266</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.625581456444248</v>
@@ -12830,7 +12830,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.451086189288888</v>
+        <v>1.471016341751179</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.552756582858399</v>
@@ -12919,7 +12919,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.448077427213565</v>
+        <v>1.463989486008967</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.820831369213773</v>
@@ -13008,7 +13008,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.450685876195818</v>
+        <v>1.472695010234774</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.334089439745727</v>
@@ -13097,7 +13097,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.473936462740535</v>
+        <v>1.498187272184955</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.775913828549127</v>
@@ -13186,7 +13186,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.472923644380302</v>
+        <v>1.496389933881569</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.823598032800061</v>
@@ -13275,7 +13275,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.452415433228154</v>
+        <v>1.48036698634776</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.827775142837493</v>
@@ -13364,7 +13364,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.483942099316884</v>
+        <v>1.509475950941604</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.777318158134859</v>
@@ -13453,7 +13453,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.476139734621329</v>
+        <v>1.501377639864391</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.46773615425266</v>
@@ -13542,7 +13542,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.456139617113989</v>
+        <v>1.483906169812903</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.63547965912852</v>
@@ -13631,7 +13631,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.462236671918223</v>
+        <v>1.49061411564574</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.815714960152873</v>
@@ -13720,7 +13720,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.443877170603713</v>
+        <v>1.470720984729242</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.698629406876815</v>
@@ -13809,7 +13809,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.441949293920549</v>
+        <v>1.470245697072898</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.717460487944469</v>
@@ -13898,7 +13898,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.426961265209757</v>
+        <v>1.457171835565146</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.737885661246806</v>
@@ -13987,7 +13987,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.458287676023093</v>
+        <v>1.487749933567799</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.640025544110053</v>
@@ -14076,7 +14076,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.450382551621936</v>
+        <v>1.481325268075194</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.682352427232186</v>
@@ -14165,7 +14165,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.458302048726276</v>
+        <v>1.492133861987441</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.644951386988704</v>
@@ -14254,7 +14254,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.463782110616096</v>
+        <v>1.495216826487137</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.500449241804589</v>
@@ -14343,7 +14343,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.430733051591945</v>
+        <v>1.459279244355499</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.573489148510959</v>
@@ -14432,7 +14432,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.403944819462761</v>
+        <v>1.435099092866135</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.586488485303379</v>
@@ -14521,7 +14521,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.411143652629835</v>
+        <v>1.438132435492096</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.40443694726953</v>
@@ -14610,7 +14610,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.416788807757023</v>
+        <v>1.445741466563952</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.563854126166022</v>
@@ -14699,7 +14699,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.407059714955124</v>
+        <v>1.435186539714648</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.439254158356039</v>
@@ -14788,7 +14788,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.41474905960168</v>
+        <v>1.443147395433194</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.50034645131587</v>
@@ -14877,7 +14877,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.434110031703626</v>
+        <v>1.461266007113524</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.55108610076435</v>
@@ -14966,7 +14966,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.427895569756583</v>
+        <v>1.453050477445394</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.465011696146563</v>
@@ -15055,7 +15055,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.418366266759158</v>
+        <v>1.445208903489484</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.371425921961865</v>
@@ -15144,7 +15144,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.42743065778053</v>
+        <v>1.45328834158026</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.451080760786156</v>
@@ -15233,7 +15233,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.432501454234905</v>
+        <v>1.458536183019003</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.447670600509764</v>
@@ -15322,7 +15322,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.430882437852194</v>
+        <v>1.456388334234926</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.368133507418397</v>
@@ -15411,7 +15411,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.436456553513811</v>
+        <v>1.461821843765868</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.365238941861635</v>
@@ -15500,7 +15500,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.422713314118814</v>
+        <v>1.446368475626918</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.389832676038642</v>
@@ -15589,7 +15589,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.428020863935104</v>
+        <v>1.449071335860012</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.320883845345801</v>
@@ -15678,7 +15678,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.456474279123416</v>
+        <v>1.473180598386567</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.518911433950648</v>
@@ -15964,7 +15964,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.268347518207193</v>
+        <v>1.27817308792163</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>1.578381223959982</v>
@@ -16053,7 +16053,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.26221485449813</v>
+        <v>1.274442289420988</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>1.577759205114122</v>
@@ -16142,7 +16142,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.266944487328013</v>
+        <v>1.275286165379149</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>1.588316286159801</v>
@@ -16231,7 +16231,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.252691796235245</v>
+        <v>1.254840710188039</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>1.596780589596932</v>
@@ -16320,7 +16320,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.225680141696099</v>
+        <v>1.23262771419035</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>1.593639552011433</v>
@@ -16409,7 +16409,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.228474315216203</v>
+        <v>1.235322284609554</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>1.597785297526524</v>
@@ -16498,7 +16498,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.234804540648699</v>
+        <v>1.24135103808749</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>1.582070725594894</v>
@@ -16587,7 +16587,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.183390082986826</v>
+        <v>1.183595341971186</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>1.677461068883841</v>
@@ -16676,7 +16676,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.177541637697001</v>
+        <v>1.178720494475829</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>1.668285479705682</v>
@@ -16765,7 +16765,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.184499776573471</v>
+        <v>1.18682148183615</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>1.660230920049895</v>
@@ -16854,7 +16854,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.198816013468736</v>
+        <v>1.202200965566094</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>1.638110179300194</v>
@@ -16943,7 +16943,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.207235097883071</v>
+        <v>1.207482538109711</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>1.662314390503857</v>
@@ -17032,7 +17032,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.262311378095461</v>
+        <v>1.270938859874997</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>1.56908595612809</v>
@@ -17121,7 +17121,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.269477862732577</v>
+        <v>1.272098371523107</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>1.62005107948374</v>
@@ -17210,7 +17210,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.246833098846436</v>
+        <v>1.252166662428885</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>1.637877964068129</v>
@@ -17299,7 +17299,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.247575351707817</v>
+        <v>1.253275973871006</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>1.640165836477834</v>
@@ -17388,7 +17388,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.251062571393496</v>
+        <v>1.256932472579411</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>1.641250307304354</v>
@@ -17477,7 +17477,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.237497838067117</v>
+        <v>1.244554587161821</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>1.64872910354898</v>
@@ -17566,7 +17566,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.269129160745142</v>
+        <v>1.28024946970334</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>1.618145748588158</v>
@@ -17655,7 +17655,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.270813303914254</v>
+        <v>1.280740727821853</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>1.616657187019471</v>
@@ -17744,7 +17744,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.265310673263035</v>
+        <v>1.266187771273195</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>1.634231740647538</v>
@@ -17833,7 +17833,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.263249507148559</v>
+        <v>1.269698199431868</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>1.572659980215055</v>
@@ -17922,7 +17922,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.384235370853106</v>
+        <v>1.397587133458657</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>1.969718908161681</v>
@@ -18011,7 +18011,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.398753353294553</v>
+        <v>1.410223040842183</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.070006038806183</v>
@@ -18100,7 +18100,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.401673208967532</v>
+        <v>1.414750908576721</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.1040258815837</v>
@@ -18189,7 +18189,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.405048524823046</v>
+        <v>1.419306132443736</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.083438513548861</v>
@@ -18278,7 +18278,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.400605595745545</v>
+        <v>1.415228837455684</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.101931740946594</v>
@@ -18367,7 +18367,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.272008120088397</v>
+        <v>1.278577307112838</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>1.606593546096761</v>
@@ -18456,7 +18456,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.285803732552403</v>
+        <v>1.29185818450034</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>1.547679506907888</v>
@@ -18545,7 +18545,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.307404967027678</v>
+        <v>1.318134101156821</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>1.589144241288837</v>
@@ -18634,7 +18634,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.305430092723038</v>
+        <v>1.312254115336198</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>1.589041205593443</v>
@@ -18723,7 +18723,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.310173861214187</v>
+        <v>1.314461811286866</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>1.582586390006031</v>
@@ -18812,7 +18812,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.328157388837729</v>
+        <v>1.329970731592894</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>1.577687125912836</v>
@@ -18901,7 +18901,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.309029283840053</v>
+        <v>1.301633031051159</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>1.603957358812263</v>
@@ -18990,7 +18990,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.233593398957656</v>
+        <v>1.233459398792754</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>1.654824807133232</v>
@@ -19079,7 +19079,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.2446255554089</v>
+        <v>1.246742198099464</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>1.623924453623173</v>
@@ -19168,7 +19168,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.247376412228923</v>
+        <v>1.250986827601994</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>1.648649507225402</v>
@@ -19257,7 +19257,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.250920834417665</v>
+        <v>1.254917616433565</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>1.650184205378814</v>
@@ -19346,7 +19346,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.250391273392598</v>
+        <v>1.253229084478013</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>1.642870891356686</v>
@@ -19435,7 +19435,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.247193024599051</v>
+        <v>1.249073998840116</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>1.649078146296594</v>
@@ -19524,7 +19524,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.239262265102088</v>
+        <v>1.234032148496592</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>1.657689069672143</v>
@@ -19613,7 +19613,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.215874260874809</v>
+        <v>1.211555319671022</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>1.650440872493618</v>
@@ -19899,7 +19899,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.632792805180956</v>
+        <v>1.642616696291542</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.683838542311845</v>
@@ -19988,7 +19988,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.624479479845838</v>
+        <v>1.634327373850905</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.542162958136414</v>
@@ -20077,7 +20077,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.633276446471232</v>
+        <v>1.638688121146521</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.404980155524628</v>
@@ -20166,7 +20166,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.649845078863243</v>
+        <v>1.654868161864564</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.707646181619229</v>
@@ -20255,7 +20255,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.636573434945812</v>
+        <v>1.643221602277862</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.765726501534917</v>
@@ -20344,7 +20344,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.634853992899495</v>
+        <v>1.642011706439279</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.713277473138152</v>
@@ -20433,7 +20433,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.637628946040221</v>
+        <v>1.643734926548821</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.877769189293085</v>
@@ -20522,7 +20522,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.618742216062716</v>
+        <v>1.630359999470907</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.578559711637672</v>
@@ -20611,7 +20611,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.610275690732713</v>
+        <v>1.614247947439435</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.54953480441184</v>
@@ -20700,7 +20700,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.612825969305866</v>
+        <v>1.618908491660685</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.562386853249714</v>
@@ -20789,7 +20789,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.618840872103211</v>
+        <v>1.622648074142651</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.601857845434914</v>
@@ -20878,7 +20878,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.613846887810598</v>
+        <v>1.620835482232782</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.593400330754713</v>
@@ -20967,7 +20967,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.646053905863279</v>
+        <v>1.650750238550092</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.647452846904709</v>
@@ -21056,7 +21056,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.652392820830156</v>
+        <v>1.655506315943253</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.907642269942689</v>
@@ -21145,7 +21145,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.639922272024228</v>
+        <v>1.643137877608153</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.819319115843257</v>
@@ -21234,7 +21234,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.638211141717243</v>
+        <v>1.641531598335562</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.912788279133752</v>
@@ -21323,7 +21323,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.662642601288076</v>
+        <v>1.660855087831672</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.851708150478776</v>
@@ -21412,7 +21412,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.665172436757924</v>
+        <v>1.659411938160719</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.844358679539415</v>
@@ -21501,7 +21501,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.675555402367212</v>
+        <v>1.67075979119018</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.632674424989494</v>
@@ -21590,7 +21590,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.679566638338196</v>
+        <v>1.672702928864687</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.929887423330322</v>
@@ -21679,7 +21679,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.675709654255657</v>
+        <v>1.668508235153523</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.910707643930741</v>
@@ -21768,7 +21768,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.678673064405571</v>
+        <v>1.673024231379413</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.861503401478832</v>
@@ -21857,7 +21857,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.725419395402639</v>
+        <v>1.712821789187501</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.549698115869269</v>
@@ -21946,7 +21946,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.744658238677623</v>
+        <v>1.737610225485512</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.521887999221192</v>
@@ -22035,7 +22035,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.736763535522939</v>
+        <v>1.733685699614201</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.877703941567911</v>
@@ -22124,7 +22124,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.736426783895034</v>
+        <v>1.738521901232704</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.450714716622639</v>
@@ -22213,7 +22213,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.746162929741372</v>
+        <v>1.745541482552625</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.793125988457172</v>
@@ -22302,7 +22302,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.702147283184035</v>
+        <v>1.708588469065235</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.829395895496807</v>
@@ -22391,7 +22391,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.696781226088397</v>
+        <v>1.696806046426078</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.749167146644499</v>
@@ -22480,7 +22480,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.703820607545605</v>
+        <v>1.707947813664507</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.777344823698887</v>
@@ -22569,7 +22569,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.70647465201081</v>
+        <v>1.703960067673375</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.874638063327304</v>
@@ -22658,7 +22658,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.699668945468077</v>
+        <v>1.699395135566021</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.773546655507741</v>
@@ -22747,7 +22747,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.683814854360546</v>
+        <v>1.686674502853953</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.704389826009288</v>
@@ -22836,7 +22836,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.677636866193067</v>
+        <v>1.683873742043004</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.782979187847887</v>
@@ -22925,7 +22925,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.648019934562829</v>
+        <v>1.663830502957218</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.738324512544779</v>
@@ -23014,7 +23014,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.654241041771342</v>
+        <v>1.673629613301051</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.792621375455171</v>
@@ -23103,7 +23103,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.651409644324594</v>
+        <v>1.666098228781651</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.777829650741956</v>
@@ -23192,7 +23192,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.631295800998205</v>
+        <v>1.646480462267318</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.863366855470352</v>
@@ -23281,7 +23281,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.616817610763334</v>
+        <v>1.629470874499792</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.700029350089571</v>
@@ -23370,7 +23370,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.617552763509238</v>
+        <v>1.63002340276714</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.799834615907622</v>
@@ -23459,7 +23459,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.610873823649912</v>
+        <v>1.624115741462967</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.603995797405496</v>
@@ -23548,7 +23548,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.607670969532374</v>
+        <v>1.622298022968469</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.695038438862858</v>
@@ -23834,7 +23834,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.49093024125374</v>
+        <v>1.497159475352339</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.210557502462988</v>
@@ -23923,7 +23923,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.508664086017004</v>
+        <v>1.512941581331182</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.208179001156485</v>
@@ -24012,7 +24012,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.532586910327703</v>
+        <v>1.533296843627002</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.345185141459712</v>
@@ -24101,7 +24101,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.539543841572895</v>
+        <v>1.537305535281821</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.225237505949026</v>
@@ -24190,7 +24190,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.538194978701949</v>
+        <v>1.532328232529301</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.200803388106208</v>
@@ -24279,7 +24279,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.514950882389688</v>
+        <v>1.512236454214351</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.228970421246065</v>
@@ -24368,7 +24368,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.5391710992407</v>
+        <v>1.53120899966346</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.091471387657366</v>
@@ -24457,7 +24457,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.533339066232124</v>
+        <v>1.531260635812855</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.225853398900792</v>
@@ -24546,7 +24546,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.511720787134842</v>
+        <v>1.512147332737886</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.185539542785865</v>
@@ -24635,7 +24635,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.516223935495798</v>
+        <v>1.517692997457198</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.216897054037183</v>
@@ -24724,7 +24724,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.514885675151753</v>
+        <v>1.514571042599661</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.202572108359005</v>
@@ -24813,7 +24813,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.51626959392798</v>
+        <v>1.518874854521595</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.218912703151799</v>
@@ -24902,7 +24902,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.532991800621539</v>
+        <v>1.539166528303999</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.305766741092728</v>
@@ -24991,7 +24991,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.53459936620483</v>
+        <v>1.539589575207973</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.243846540469578</v>
@@ -25080,7 +25080,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.522614801431063</v>
+        <v>1.526379786430357</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.31875704787488</v>
@@ -25169,7 +25169,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.576349879882752</v>
+        <v>1.573547553999189</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.353668304135396</v>
@@ -25258,7 +25258,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.576189729093042</v>
+        <v>1.574060657490002</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.333269270680498</v>
@@ -25347,7 +25347,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.599685106138077</v>
+        <v>1.597769504853181</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.497132128634186</v>
@@ -25436,7 +25436,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.592464639761784</v>
+        <v>1.592555794545136</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.321654252694124</v>
@@ -25525,7 +25525,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.593622579930413</v>
+        <v>1.596250913854863</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.442943863237932</v>
@@ -25614,7 +25614,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.634595870665407</v>
+        <v>1.632651409722918</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.648268808969831</v>
@@ -25703,7 +25703,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.644262203958834</v>
+        <v>1.649070571650677</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.418002524018925</v>
@@ -25792,7 +25792,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.669509352233919</v>
+        <v>1.669381271926969</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.503621852656769</v>
@@ -25881,7 +25881,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.714729817917056</v>
+        <v>1.707142188587154</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.995375775088239</v>
@@ -25970,7 +25970,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.71437696142239</v>
+        <v>1.704945584743305</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.253476583229599</v>
@@ -26059,7 +26059,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.715921391326002</v>
+        <v>1.703516365594447</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.334076145382688</v>
@@ -26148,7 +26148,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.723076996686842</v>
+        <v>1.710950533760219</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.335503423622189</v>
@@ -26237,7 +26237,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.694842186216729</v>
+        <v>1.687152100665584</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.025648257715499</v>
@@ -26326,7 +26326,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.65331554575905</v>
+        <v>1.636963759819733</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.239486795296413</v>
@@ -26415,7 +26415,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.653499969465551</v>
+        <v>1.651624252832894</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.291337943223487</v>
@@ -26504,7 +26504,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.650964193688294</v>
+        <v>1.645821235396542</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.254850342704623</v>
@@ -26593,7 +26593,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.604959843855526</v>
+        <v>1.60079813223102</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.086636002111674</v>
@@ -26682,7 +26682,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.604799320860209</v>
+        <v>1.597975446950317</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.2571771551974</v>
@@ -26771,7 +26771,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.584213004596308</v>
+        <v>1.584026785943287</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.165420306665598</v>
@@ -26860,7 +26860,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.570782150415137</v>
+        <v>1.575763486170269</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.140589070569459</v>
@@ -26949,7 +26949,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.530232214329638</v>
+        <v>1.539862058353898</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.247365590308757</v>
@@ -27038,7 +27038,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.524501620341455</v>
+        <v>1.533736029082622</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.221294085441357</v>
@@ -27127,7 +27127,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.515588802558465</v>
+        <v>1.52102916503953</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.18931049265305</v>
@@ -27216,7 +27216,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.505373399397463</v>
+        <v>1.510011011727907</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.240437804051389</v>
@@ -27305,7 +27305,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.501729177234314</v>
+        <v>1.506520984064414</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.242547697876857</v>
@@ -27394,7 +27394,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.479093491036495</v>
+        <v>1.487415885446338</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.251516146509511</v>
@@ -27483,7 +27483,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.468223651488734</v>
+        <v>1.472938525340427</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.24470437974054</v>
